--- a/WWTF/flowchart.xlsx
+++ b/WWTF/flowchart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proofs-as-Programs-in-Classical-Logic\WWTF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45D3221-2FDF-4291-AAE8-5D819015BCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4F171C-DF0F-4910-A416-B11E88AF755C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="1080" windowWidth="23700" windowHeight="13920" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,9 +163,6 @@
     <t>Task B.1: Implementing the findings of WP1 into a software system</t>
   </si>
   <si>
-    <t>Task B.2: Utilizing syntactic context for improved proof effectiveness</t>
-  </si>
-  <si>
     <t>Task B.3: Extending the system to restricted specifications, e.g. input/output pairs</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>M.4</t>
+  </si>
+  <si>
+    <t>Task B.2: Utilizing syntactic context for improved proof search</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -515,6 +515,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -904,8 +907,8 @@
   </sheetPr>
   <dimension ref="A1:AI265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -940,30 +943,30 @@
     <row r="3" spans="1:35" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="47" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="47" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="47" t="s">
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50"/>
     </row>
     <row r="4" spans="1:35" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -1268,7 +1271,7 @@
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
       <c r="L15" s="43"/>
-      <c r="M15" s="45"/>
+      <c r="M15" s="46"/>
       <c r="N15" s="43"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
@@ -1343,7 +1346,6 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
-      <c r="P18" s="37"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
     </row>
@@ -1365,7 +1367,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
+      <c r="P19" s="45"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="W19"/>
@@ -1374,8 +1376,8 @@
     </row>
     <row r="20" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="46" t="s">
-        <v>50</v>
+      <c r="B20" s="47" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1392,7 +1394,7 @@
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
-      <c r="R20" s="37"/>
+      <c r="R20" s="45"/>
       <c r="W20"/>
       <c r="AC20" s="1"/>
       <c r="AI20"/>
@@ -1551,7 +1553,7 @@
     <row r="29" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="22" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -1573,7 +1575,7 @@
     <row r="30" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
@@ -1595,7 +1597,7 @@
     <row r="31" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
@@ -1643,8 +1645,8 @@
     </row>
     <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
-      <c r="B33" s="50" t="s">
-        <v>45</v>
+      <c r="B33" s="51" t="s">
+        <v>44</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="18"/>
@@ -1663,28 +1665,28 @@
     </row>
     <row r="34" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B34" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1"/>
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B35" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1"/>
       <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B36" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1"/>
       <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B37" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1"/>
       <c r="G37" s="1"/>

--- a/WWTF/flowchart.xlsx
+++ b/WWTF/flowchart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proofs-as-Programs-in-Classical-Logic\WWTF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4F171C-DF0F-4910-A416-B11E88AF755C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A85C98-0090-4323-8C1E-B46D00BF8272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1080" windowWidth="23700" windowHeight="13920" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="735" windowWidth="23700" windowHeight="13920" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Flowchart" sheetId="2" r:id="rId1"/>
@@ -30,12 +30,22 @@
     <definedName name="_TP1" localSheetId="0">[1]Personnel!#REF!</definedName>
     <definedName name="_TP1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Q1</t>
   </si>
@@ -49,9 +59,6 @@
     <t>Q4</t>
   </si>
   <si>
-    <t xml:space="preserve">Ressources </t>
-  </si>
-  <si>
     <t>PROJECT FLOWCHART</t>
   </si>
   <si>
@@ -76,36 +83,6 @@
     <t>Task B.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Team A: </t>
-  </si>
-  <si>
-    <t>Florian Zuleger, N.N (PhD student)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team C: </t>
-  </si>
-  <si>
-    <t>Team D:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Work done mainly by Team A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Work done mainly by Team B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Work done mainly by Team C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Work done mainly by Team D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team B: </t>
-  </si>
-  <si>
-    <t>Florian Zuleger, Moritz Sinn</t>
-  </si>
-  <si>
     <t>Year 1 (June 2022-May 2023)</t>
   </si>
   <si>
@@ -188,6 +165,36 @@
   </si>
   <si>
     <t>Task B.2: Utilizing syntactic context for improved proof search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workplan: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff: </t>
+  </si>
+  <si>
+    <t>Florian Zuleger (PI)</t>
+  </si>
+  <si>
+    <t>PhD1 (Alexander Pluska, 48 months)</t>
+  </si>
+  <si>
+    <t>PhD2 (N.N., 48 months)</t>
+  </si>
+  <si>
+    <t>PostDoc (N.N, 24 months, year 3-4)</t>
+  </si>
+  <si>
+    <t>The PI Florian Zuleger will be involved in all tasks and lead A.5, B.1, B.4</t>
+  </si>
+  <si>
+    <t>PhD1 will lead tasks A.1, A.2 and be involved in A.1,A.2,A.5,B.1,B.2.,B.3,B.4</t>
+  </si>
+  <si>
+    <t>PhD2 will lead tasks A.3, A.4 and be involved in A.1,A.3,A.4.,A.5,B.1,B.4</t>
+  </si>
+  <si>
+    <t>PostDoc will lead tasks B.2,B.3 and be involved in B.1,B.4</t>
   </si>
 </sst>
 </file>
@@ -248,7 +255,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,12 +271,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -464,7 +465,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -485,22 +485,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -511,14 +499,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -534,7 +522,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -907,8 +895,8 @@
   </sheetPr>
   <dimension ref="A1:AI265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -931,7 +919,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1"/>
       <c r="G1" s="1"/>
@@ -943,30 +931,30 @@
     <row r="3" spans="1:35" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50"/>
+      <c r="C3" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:35" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -1022,7 +1010,7 @@
     </row>
     <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="11"/>
@@ -1045,13 +1033,14 @@
     <row r="6" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6"/>
-      <c r="G6"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -1066,16 +1055,16 @@
     <row r="7" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -1088,16 +1077,16 @@
     <row r="8" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="14"/>
@@ -1113,18 +1102,18 @@
     <row r="9" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="35"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -1135,7 +1124,7 @@
     <row r="10" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1145,10 +1134,10 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
@@ -1159,7 +1148,7 @@
     </row>
     <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="11"/>
@@ -1185,20 +1174,20 @@
     <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -1210,7 +1199,7 @@
     <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1218,14 +1207,14 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="W13"/>
@@ -1235,22 +1224,22 @@
     <row r="14" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="44"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="39"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="W14"/>
@@ -1260,27 +1249,27 @@
     <row r="15" spans="1:35" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
     </row>
     <row r="16" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
@@ -1306,7 +1295,7 @@
     <row r="17" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1315,7 +1304,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="37"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="14"/>
@@ -1331,7 +1320,7 @@
     <row r="18" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="13" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1342,7 +1331,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="37"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
@@ -1352,7 +1341,7 @@
     <row r="19" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1367,7 +1356,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="45"/>
+      <c r="P19" s="40"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="W19"/>
@@ -1376,8 +1365,8 @@
     </row>
     <row r="20" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="47" t="s">
-        <v>49</v>
+      <c r="B20" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1394,7 +1383,7 @@
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
-      <c r="R20" s="45"/>
+      <c r="R20" s="40"/>
       <c r="W20"/>
       <c r="AC20" s="1"/>
       <c r="AI20"/>
@@ -1421,112 +1410,107 @@
     </row>
     <row r="22" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
-      <c r="B22" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="N22" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="B22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
       <c r="O22" s="18"/>
       <c r="S22" s="18"/>
     </row>
     <row r="23" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
-      <c r="B23" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="23" t="s">
-        <v>17</v>
+      <c r="B23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="O23" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="Q23" s="18"/>
       <c r="S23" s="18"/>
     </row>
     <row r="24" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
-      <c r="B24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="23" t="s">
-        <v>18</v>
+      <c r="B24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="O24" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="Q24" s="18"/>
       <c r="S24" s="18"/>
     </row>
     <row r="25" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
-      <c r="B25" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="23" t="s">
-        <v>19</v>
+      <c r="B25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="O25" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="Q25" s="18"/>
       <c r="S25" s="18"/>
     </row>
     <row r="26" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
-      <c r="B26" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="23" t="s">
-        <v>20</v>
+      <c r="B26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="O26" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="Q26" s="18"/>
       <c r="S26" s="18"/>
     </row>
     <row r="27" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
-      <c r="B27" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
+      <c r="B27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="O27" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="22"/>
       <c r="Q27" s="18"/>
       <c r="U27" s="1"/>
       <c r="W27"/>
@@ -1535,8 +1519,8 @@
     </row>
     <row r="28" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
-      <c r="B28" s="22" t="s">
-        <v>41</v>
+      <c r="B28" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
@@ -1545,74 +1529,58 @@
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
       <c r="S28" s="18"/>
     </row>
     <row r="29" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="22" t="s">
-        <v>50</v>
+      <c r="B29" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
-      <c r="L29" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
+      <c r="L29" s="32"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
       <c r="S29" s="18"/>
     </row>
     <row r="30" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
-      <c r="B30" s="22" t="s">
-        <v>42</v>
+      <c r="B30" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="24"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
-      <c r="L30" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="L30" s="18"/>
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
       <c r="S30" s="18"/>
     </row>
     <row r="31" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
-      <c r="B31" s="22" t="s">
-        <v>43</v>
+      <c r="B31" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="24"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="M31" s="33" t="s">
-        <v>14</v>
-      </c>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
@@ -1621,22 +1589,17 @@
     </row>
     <row r="32" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
-      <c r="B32" s="22"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="24"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="L32" s="32"/>
+      <c r="M32" s="18"/>
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
@@ -1645,18 +1608,20 @@
     </row>
     <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
-      <c r="B33" s="51" t="s">
-        <v>44</v>
+      <c r="B33" s="46" t="s">
+        <v>33</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="27"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
+      <c r="K33" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
@@ -1665,31 +1630,43 @@
     </row>
     <row r="34" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B34" s="17" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="G34" s="24"/>
+      <c r="G34" s="23"/>
+      <c r="K34" s="22" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B35" s="22" t="s">
-        <v>48</v>
+      <c r="B35" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="C35" s="1"/>
       <c r="G35" s="18"/>
+      <c r="K35" s="22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="22" t="s">
-        <v>46</v>
+      <c r="B36" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C36" s="1"/>
       <c r="G36" s="18"/>
+      <c r="K36" s="18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="22" t="s">
-        <v>47</v>
+      <c r="B37" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="C37" s="1"/>
       <c r="G37" s="1"/>
+      <c r="K37" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>

--- a/WWTF/flowchart.xlsx
+++ b/WWTF/flowchart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proofs-as-Programs-in-Classical-Logic\WWTF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A85C98-0090-4323-8C1E-B46D00BF8272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AAD13D-3CCB-4726-99A2-379B5A8131F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="735" windowWidth="23700" windowHeight="13920" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="1245" windowWidth="23700" windowHeight="13920" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Flowchart" sheetId="2" r:id="rId1"/>
@@ -895,8 +895,8 @@
   </sheetPr>
   <dimension ref="A1:AI265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/WWTF/flowchart.xlsx
+++ b/WWTF/flowchart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proofs-as-Programs-in-Classical-Logic\WWTF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AAD13D-3CCB-4726-99A2-379B5A8131F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9220CE-D614-49D9-8E27-35DBA78C36D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1245" windowWidth="23700" windowHeight="13920" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8460" yWindow="300" windowWidth="23700" windowHeight="13920" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Flowchart" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Q1</t>
   </si>
@@ -182,19 +182,13 @@
     <t>PhD2 (N.N., 48 months)</t>
   </si>
   <si>
-    <t>PostDoc (N.N, 24 months, year 3-4)</t>
-  </si>
-  <si>
     <t>The PI Florian Zuleger will be involved in all tasks and lead A.5, B.1, B.4</t>
   </si>
   <si>
-    <t>PhD1 will lead tasks A.1, A.2 and be involved in A.1,A.2,A.5,B.1,B.2.,B.3,B.4</t>
-  </si>
-  <si>
-    <t>PhD2 will lead tasks A.3, A.4 and be involved in A.1,A.3,A.4.,A.5,B.1,B.4</t>
-  </si>
-  <si>
-    <t>PostDoc will lead tasks B.2,B.3 and be involved in B.1,B.4</t>
+    <t>PhD1 will lead tasks A.1, A.2, B.2 and be involved in A.5,B.1,B.4</t>
+  </si>
+  <si>
+    <t>PhD2 will lead tasks A.3, A.4, B.3 and be involved in A.1,A.5,B.1,B.4</t>
   </si>
 </sst>
 </file>
@@ -513,6 +507,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,9 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,8 +889,8 @@
   </sheetPr>
   <dimension ref="A1:AI265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -931,30 +925,30 @@
     <row r="3" spans="1:35" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="43" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="43" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="43" t="s">
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="46"/>
     </row>
     <row r="4" spans="1:35" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -1507,9 +1501,7 @@
       <c r="G27" s="30"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
-      <c r="O27" s="18" t="s">
-        <v>45</v>
-      </c>
+      <c r="O27" s="18"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="18"/>
       <c r="U27" s="1"/>
@@ -1608,7 +1600,7 @@
     </row>
     <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="17"/>
@@ -1635,7 +1627,7 @@
       <c r="C34" s="1"/>
       <c r="G34" s="23"/>
       <c r="K34" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
@@ -1645,7 +1637,7 @@
       <c r="C35" s="1"/>
       <c r="G35" s="18"/>
       <c r="K35" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
@@ -1655,7 +1647,7 @@
       <c r="C36" s="1"/>
       <c r="G36" s="18"/>
       <c r="K36" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
@@ -1664,9 +1656,7 @@
       </c>
       <c r="C37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="K37" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="K37" s="17"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
